--- a/Расписание 10И.xlsx
+++ b/Расписание 10И.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b28425dc8058990/Рабочий стол/проект/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\local_admin\PycharmProjects\telegrambot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DF10E07-ED81-4A9E-8C55-F0C6498C10DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48958C42-F862-4A61-8EAB-0CF39E36729D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{E694AB8F-0B47-43DB-BD3E-1FE3509BA610}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="48">
   <si>
     <t>Понедельник</t>
   </si>
@@ -59,124 +59,127 @@
     <t>Конец</t>
   </si>
   <si>
-    <t>Замены</t>
-  </si>
-  <si>
     <t>Разговоры о важном</t>
   </si>
   <si>
     <t>Моргуненко Елена Юрьевна</t>
   </si>
   <si>
+    <t>Коновалова Татьяна Александровна</t>
+  </si>
+  <si>
+    <t>Информатика</t>
+  </si>
+  <si>
+    <t>Алгебра и начала математического анализа</t>
+  </si>
+  <si>
+    <t>Юркевич Дмитрий Евгеньевич</t>
+  </si>
+  <si>
+    <t>Русский язык</t>
+  </si>
+  <si>
+    <t>Вторник</t>
+  </si>
+  <si>
+    <t>Биология</t>
+  </si>
+  <si>
+    <t>Кирсанова Наталья Алексеевна</t>
+  </si>
+  <si>
+    <t>Обществознание</t>
+  </si>
+  <si>
+    <t>Баженов Олег Александрович</t>
+  </si>
+  <si>
+    <t>Физическая культура</t>
+  </si>
+  <si>
+    <t>Зубова Мария Владимировна</t>
+  </si>
+  <si>
+    <t>История</t>
+  </si>
+  <si>
+    <t>Английский язык</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t>Геометрия</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>Химия</t>
+  </si>
+  <si>
+    <t>Практикум по математике</t>
+  </si>
+  <si>
+    <t>Литература</t>
+  </si>
+  <si>
+    <t>Пятница</t>
+  </si>
+  <si>
+    <t>География</t>
+  </si>
+  <si>
+    <t>Стрижакова Виктория Леонидовна</t>
+  </si>
+  <si>
+    <t>Теряев Александр Иванович</t>
+  </si>
+  <si>
+    <t>Инф/ТехСоврПр</t>
+  </si>
+  <si>
+    <t>Инженерный практикум</t>
+  </si>
+  <si>
+    <t>ТВиС</t>
+  </si>
+  <si>
+    <t>ОБЖ</t>
+  </si>
+  <si>
+    <t>Индивидуальный проект</t>
+  </si>
+  <si>
+    <t>Сергей Анатольевич перепелицын</t>
+  </si>
+  <si>
+    <t>Сергей Анатольевич Перепелицын</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Звягинцев Дмитрий Александрович </t>
+  </si>
+  <si>
+    <t>Горошко Евгений Валерьевич</t>
+  </si>
+  <si>
+    <t>Сурадеева Ирина Геннальевна</t>
+  </si>
+  <si>
+    <t>Карпова Анна Сергеевна</t>
+  </si>
+  <si>
+    <t>Замена</t>
+  </si>
+  <si>
+    <t>Учитель на замене</t>
+  </si>
+  <si>
     <t>нет</t>
-  </si>
-  <si>
-    <t>Коновалова Татьяна Александровна</t>
-  </si>
-  <si>
-    <t>Информатика</t>
-  </si>
-  <si>
-    <t>Алгебра и начала математического анализа</t>
-  </si>
-  <si>
-    <t>Юркевич Дмитрий Евгеньевич</t>
-  </si>
-  <si>
-    <t>Русский язык</t>
-  </si>
-  <si>
-    <t>Вторник</t>
-  </si>
-  <si>
-    <t>Биология</t>
-  </si>
-  <si>
-    <t>Кирсанова Наталья Алексеевна</t>
-  </si>
-  <si>
-    <t>Обществознание</t>
-  </si>
-  <si>
-    <t>Баженов Олег Александрович</t>
-  </si>
-  <si>
-    <t>Физическая культура</t>
-  </si>
-  <si>
-    <t>Зубова Мария Владимировна</t>
-  </si>
-  <si>
-    <t>История</t>
-  </si>
-  <si>
-    <t>Английский язык</t>
-  </si>
-  <si>
-    <t>Среда</t>
-  </si>
-  <si>
-    <t>Физика</t>
-  </si>
-  <si>
-    <t>Геометрия</t>
-  </si>
-  <si>
-    <t>Четверг</t>
-  </si>
-  <si>
-    <t>Химия</t>
-  </si>
-  <si>
-    <t>Практикум по математике</t>
-  </si>
-  <si>
-    <t>Литература</t>
-  </si>
-  <si>
-    <t>Пятница</t>
-  </si>
-  <si>
-    <t>География</t>
-  </si>
-  <si>
-    <t>Стрижакова Виктория Леонидовна</t>
-  </si>
-  <si>
-    <t>Теряев Александр Иванович</t>
-  </si>
-  <si>
-    <t>Инф/ТехСоврПр</t>
-  </si>
-  <si>
-    <t>Инженерный практикум</t>
-  </si>
-  <si>
-    <t>ТВиС</t>
-  </si>
-  <si>
-    <t>ОБЖ</t>
-  </si>
-  <si>
-    <t>Индивидуальный проект</t>
-  </si>
-  <si>
-    <t>Сергей Анатольевич перепелицын</t>
-  </si>
-  <si>
-    <t>Сергей Анатольевич Перепелицын</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Звягинцев Дмитрий Александрович </t>
-  </si>
-  <si>
-    <t>Горошко Евгений Валерьевич</t>
-  </si>
-  <si>
-    <t>Сурадеева Ирина Геннальевна</t>
-  </si>
-  <si>
-    <t>Учитель на замене</t>
   </si>
 </sst>
 </file>
@@ -213,23 +216,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -249,9 +250,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -289,7 +290,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -395,7 +396,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -537,7 +538,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -547,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A851EC3B-98C9-49DB-95B9-E4F05A3D2157}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,12 +557,12 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="10.77734375" customWidth="1"/>
     <col min="4" max="4" width="39.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="7"/>
+    <col min="7" max="7" width="8.88671875" style="3"/>
     <col min="8" max="8" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -584,8 +585,8 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
+      <c r="G2" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="H2" t="s">
         <v>46</v>
@@ -596,25 +597,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1">
         <v>0.35416666666666669</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0.38541666666666669</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>10</v>
+      <c r="G3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -622,25 +623,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5">
+        <v>11</v>
+      </c>
+      <c r="C4">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
         <v>0.3923611111111111</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0.4236111111111111</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>10</v>
+      <c r="G4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -648,25 +649,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="2">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1">
         <v>0.43402777777777773</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0.46527777777777773</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>10</v>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -674,25 +675,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="2">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1">
         <v>0.47569444444444442</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0.50694444444444442</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>10</v>
+      <c r="G6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -700,25 +701,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1">
         <v>0.51388888888888895</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0.54513888888888895</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>10</v>
+      <c r="G7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -726,25 +727,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="2">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1">
         <v>0.56597222222222221</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>10</v>
+      <c r="G8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -752,30 +753,30 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1">
         <v>0.60416666666666663</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0.63541666666666663</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
+      <c r="G9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -797,8 +798,8 @@
       <c r="F11" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>7</v>
+      <c r="G11" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="H11" t="s">
         <v>46</v>
@@ -809,25 +810,25 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1">
         <v>0.35416666666666669</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>0.38541666666666669</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>10</v>
+      <c r="G12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -835,25 +836,25 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="2">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1">
         <v>0.3923611111111111</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>0.4236111111111111</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>10</v>
+      <c r="G13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -861,25 +862,25 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="2">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1">
         <v>0.43402777777777773</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>0.46527777777777773</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>10</v>
+      <c r="G14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -887,25 +888,25 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="2">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1">
         <v>0.47569444444444442</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>0.50694444444444442</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>10</v>
+      <c r="G15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -913,25 +914,25 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="2">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1">
         <v>0.51388888888888895</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>0.54513888888888895</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>10</v>
+      <c r="G16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -939,25 +940,25 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="2">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1">
         <v>0.56597222222222221</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>10</v>
+      <c r="G17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -965,56 +966,52 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="2">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1">
         <v>0.60416666666666663</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>0.63541666666666663</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="G18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
         <v>8</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="7">
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3">
         <v>3</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="4">
         <v>0.65625</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="4">
         <v>0.6875</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1036,8 +1033,8 @@
       <c r="F21" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>7</v>
+      <c r="G21" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="H21" t="s">
         <v>46</v>
@@ -1048,25 +1045,25 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="2">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1">
         <v>0.35416666666666669</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>0.38541666666666669</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>10</v>
+      <c r="G22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1074,25 +1071,25 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="2">
+        <v>40</v>
+      </c>
+      <c r="E23" s="1">
         <v>0.3923611111111111</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>0.4236111111111111</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>10</v>
+      <c r="G23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1100,25 +1097,25 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="2">
+        <v>40</v>
+      </c>
+      <c r="E24" s="1">
         <v>0.43402777777777773</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>0.46527777777777773</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>10</v>
+      <c r="G24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1126,25 +1123,25 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="2">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1">
         <v>0.47569444444444442</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>0.50694444444444442</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>10</v>
+      <c r="G25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1152,25 +1149,25 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="2">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1">
         <v>0.51388888888888895</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>0.54513888888888895</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>10</v>
+      <c r="G26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1178,25 +1175,25 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="2">
+        <v>43</v>
+      </c>
+      <c r="E27" s="1">
         <v>0.56597222222222221</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>10</v>
+      <c r="G27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1204,30 +1201,30 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="2">
+        <v>43</v>
+      </c>
+      <c r="E28" s="1">
         <v>0.60416666666666663</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>0.63541666666666663</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
+      <c r="G28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1249,8 +1246,8 @@
       <c r="F30" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>7</v>
+      <c r="G30" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="H30" t="s">
         <v>46</v>
@@ -1261,25 +1258,25 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C31">
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="2">
+        <v>16</v>
+      </c>
+      <c r="E31" s="1">
         <v>0.35416666666666669</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>0.38541666666666669</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>10</v>
+      <c r="G31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1287,25 +1284,25 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C32">
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="2">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1">
         <v>0.3923611111111111</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>0.4236111111111111</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>10</v>
+      <c r="G32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1313,25 +1310,25 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="2">
+        <v>40</v>
+      </c>
+      <c r="E33" s="1">
         <v>0.43402777777777773</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>0.46527777777777773</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>10</v>
+      <c r="G33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1339,25 +1336,25 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="2">
+        <v>40</v>
+      </c>
+      <c r="E34" s="1">
         <v>0.47569444444444442</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>0.50694444444444442</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>10</v>
+      <c r="G34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1365,25 +1362,25 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="2">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1">
         <v>0.51388888888888895</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>0.54513888888888895</v>
       </c>
-      <c r="G35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>10</v>
+      <c r="G35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1391,25 +1388,25 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C36">
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="2">
+        <v>41</v>
+      </c>
+      <c r="E36" s="1">
         <v>0.56597222222222221</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>10</v>
+      <c r="G36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1417,30 +1414,30 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C37">
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="2">
+        <v>41</v>
+      </c>
+      <c r="E37" s="1">
         <v>0.60416666666666663</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>0.63541666666666663</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>32</v>
+      <c r="G37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1462,10 +1459,10 @@
       <c r="F39" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H39" s="4" t="s">
+      <c r="G39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1474,25 +1471,25 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C40">
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="2">
+        <v>40</v>
+      </c>
+      <c r="E40" s="1">
         <v>0.35416666666666669</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <v>0.38541666666666669</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>10</v>
+      <c r="G40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -1500,25 +1497,25 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C41">
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="2">
+        <v>18</v>
+      </c>
+      <c r="E41" s="1">
         <v>0.3923611111111111</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <v>0.4236111111111111</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>10</v>
+      <c r="G41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -1526,25 +1523,25 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C42">
         <v>18</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="2">
+      <c r="D42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="1">
         <v>0.43402777777777773</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <v>0.46527777777777773</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>10</v>
+      <c r="G42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -1552,25 +1549,25 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C43">
         <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="2">
+        <v>42</v>
+      </c>
+      <c r="E43" s="1">
         <v>0.47569444444444442</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <v>0.50694444444444442</v>
       </c>
-      <c r="G43" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>10</v>
+      <c r="G43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -1578,25 +1575,25 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C44">
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="2">
+        <v>12</v>
+      </c>
+      <c r="E44" s="1">
         <v>0.51388888888888895</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <v>0.54513888888888895</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>10</v>
+      <c r="G44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -1604,25 +1601,25 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C45">
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="2">
+        <v>32</v>
+      </c>
+      <c r="E45" s="1">
         <v>0.56597222222222221</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>10</v>
+      <c r="G45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -1630,25 +1627,25 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C46">
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="2">
+        <v>12</v>
+      </c>
+      <c r="E46" s="1">
         <v>0.60416666666666663</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="1">
         <v>0.63541666666666663</v>
       </c>
-      <c r="G46" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>10</v>
+      <c r="G46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
